--- a/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep2_MS1_2_calibrated.xlsx
+++ b/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep2_MS1_2_calibrated.xlsx
@@ -697,7 +697,7 @@
         <x:v>66708.02</x:v>
       </x:c>
       <x:c r="D4" s="6" t="n">
-        <x:v>1075.76362</x:v>
+        <x:v>1075.76293</x:v>
       </x:c>
       <x:c r="E4" s="6" t="n">
         <x:v>8598.072</x:v>
@@ -711,7 +711,7 @@
         <x:v>120357.97</x:v>
       </x:c>
       <x:c r="D5" s="6" t="n">
-        <x:v>956.34626</x:v>
+        <x:v>956.34575</x:v>
       </x:c>
       <x:c r="E5" s="6" t="n">
         <x:v>8598.0851</x:v>
@@ -725,7 +725,7 @@
         <x:v>270147.11</x:v>
       </x:c>
       <x:c r="D6" s="6" t="n">
-        <x:v>860.81237</x:v>
+        <x:v>860.812</x:v>
       </x:c>
       <x:c r="E6" s="6" t="n">
         <x:v>8598.0851</x:v>
@@ -739,7 +739,7 @@
         <x:v>343095.31</x:v>
       </x:c>
       <x:c r="D7" s="6" t="n">
-        <x:v>782.64828</x:v>
+        <x:v>782.64803</x:v>
       </x:c>
       <x:c r="E7" s="6" t="n">
         <x:v>8598.0846</x:v>
@@ -753,7 +753,7 @@
         <x:v>230884.35</x:v>
       </x:c>
       <x:c r="D8" s="6" t="n">
-        <x:v>717.51154</x:v>
+        <x:v>717.51138</x:v>
       </x:c>
       <x:c r="E8" s="6" t="n">
         <x:v>8598.0842</x:v>
@@ -767,7 +767,7 @@
         <x:v>79965.7</x:v>
       </x:c>
       <x:c r="D9" s="6" t="n">
-        <x:v>662.39583</x:v>
+        <x:v>662.39575</x:v>
       </x:c>
       <x:c r="E9" s="6" t="n">
         <x:v>8598.0884</x:v>
@@ -830,7 +830,7 @@
         <x:v>35670.79</x:v>
       </x:c>
       <x:c r="D12" s="6" t="n">
-        <x:v>1075.76312</x:v>
+        <x:v>1075.76243</x:v>
       </x:c>
       <x:c r="E12" s="6" t="n">
         <x:v>8598.0711</x:v>
@@ -844,7 +844,7 @@
         <x:v>66717.7</x:v>
       </x:c>
       <x:c r="D13" s="6" t="n">
-        <x:v>956.34581</x:v>
+        <x:v>956.34529</x:v>
       </x:c>
       <x:c r="E13" s="6" t="n">
         <x:v>8598.0825</x:v>
@@ -858,7 +858,7 @@
         <x:v>155296.09</x:v>
       </x:c>
       <x:c r="D14" s="6" t="n">
-        <x:v>860.81197</x:v>
+        <x:v>860.81159</x:v>
       </x:c>
       <x:c r="E14" s="6" t="n">
         <x:v>8598.0822</x:v>
@@ -872,7 +872,7 @@
         <x:v>209844.37</x:v>
       </x:c>
       <x:c r="D15" s="6" t="n">
-        <x:v>782.64791</x:v>
+        <x:v>782.64765</x:v>
       </x:c>
       <x:c r="E15" s="6" t="n">
         <x:v>8598.0812</x:v>
@@ -886,7 +886,7 @@
         <x:v>137960.85</x:v>
       </x:c>
       <x:c r="D16" s="6" t="n">
-        <x:v>717.5112</x:v>
+        <x:v>717.51104</x:v>
       </x:c>
       <x:c r="E16" s="6" t="n">
         <x:v>8598.0817</x:v>
@@ -900,7 +900,7 @@
         <x:v>46082.65</x:v>
       </x:c>
       <x:c r="D17" s="6" t="n">
-        <x:v>662.39553</x:v>
+        <x:v>662.39545</x:v>
       </x:c>
       <x:c r="E17" s="6" t="n">
         <x:v>8598.085</x:v>
@@ -963,7 +963,7 @@
         <x:v>27129.37</x:v>
       </x:c>
       <x:c r="D20" s="6" t="n">
-        <x:v>1075.76356</x:v>
+        <x:v>1075.76287</x:v>
       </x:c>
       <x:c r="E20" s="6" t="n">
         <x:v>8598.0759</x:v>
@@ -977,7 +977,7 @@
         <x:v>55174.91</x:v>
       </x:c>
       <x:c r="D21" s="6" t="n">
-        <x:v>956.34621</x:v>
+        <x:v>956.3457</x:v>
       </x:c>
       <x:c r="E21" s="6" t="n">
         <x:v>8598.0837</x:v>
@@ -991,7 +991,7 @@
         <x:v>134189.27</x:v>
       </x:c>
       <x:c r="D22" s="6" t="n">
-        <x:v>860.81233</x:v>
+        <x:v>860.81196</x:v>
       </x:c>
       <x:c r="E22" s="6" t="n">
         <x:v>8598.0833</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>168583.07</x:v>
       </x:c>
       <x:c r="D23" s="6" t="n">
-        <x:v>782.64824</x:v>
+        <x:v>782.64799</x:v>
       </x:c>
       <x:c r="E23" s="6" t="n">
         <x:v>8598.0837</x:v>
@@ -1019,7 +1019,7 @@
         <x:v>113288.56</x:v>
       </x:c>
       <x:c r="D24" s="6" t="n">
-        <x:v>717.5115</x:v>
+        <x:v>717.51134</x:v>
       </x:c>
       <x:c r="E24" s="6" t="n">
         <x:v>8598.0833</x:v>
@@ -1033,7 +1033,7 @@
         <x:v>39677.28</x:v>
       </x:c>
       <x:c r="D25" s="6" t="n">
-        <x:v>662.3958</x:v>
+        <x:v>662.39572</x:v>
       </x:c>
       <x:c r="E25" s="6" t="n">
         <x:v>8598.0887</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>17332.78</x:v>
       </x:c>
       <x:c r="D28" s="6" t="n">
-        <x:v>1293.31934</x:v>
+        <x:v>1293.31834</x:v>
       </x:c>
       <x:c r="E28" s="6" t="n">
         <x:v>9046.2228</x:v>
@@ -1110,7 +1110,7 @@
         <x:v>24672.66</x:v>
       </x:c>
       <x:c r="D29" s="6" t="n">
-        <x:v>1131.78035</x:v>
+        <x:v>1131.77958</x:v>
       </x:c>
       <x:c r="E29" s="6" t="n">
         <x:v>9046.224</x:v>
@@ -1124,7 +1124,7 @@
         <x:v>58314.54</x:v>
       </x:c>
       <x:c r="D30" s="6" t="n">
-        <x:v>1006.13891</x:v>
+        <x:v>1006.13833</x:v>
       </x:c>
       <x:c r="E30" s="6" t="n">
         <x:v>9046.2251</x:v>
@@ -1138,7 +1138,7 @@
         <x:v>80921.36</x:v>
       </x:c>
       <x:c r="D31" s="6" t="n">
-        <x:v>905.62576</x:v>
+        <x:v>905.62532</x:v>
       </x:c>
       <x:c r="E31" s="6" t="n">
         <x:v>9046.2298</x:v>
@@ -1152,7 +1152,7 @@
         <x:v>113899.54</x:v>
       </x:c>
       <x:c r="D32" s="6" t="n">
-        <x:v>823.38772</x:v>
+        <x:v>823.38741</x:v>
       </x:c>
       <x:c r="E32" s="6" t="n">
         <x:v>9046.2266</x:v>
@@ -1166,7 +1166,7 @@
         <x:v>36139.3</x:v>
       </x:c>
       <x:c r="D33" s="6" t="n">
-        <x:v>754.85602</x:v>
+        <x:v>754.85581</x:v>
       </x:c>
       <x:c r="E33" s="6" t="n">
         <x:v>9046.23</x:v>
@@ -1229,7 +1229,7 @@
         <x:v>15803.26</x:v>
       </x:c>
       <x:c r="D36" s="6" t="n">
-        <x:v>1075.76531</x:v>
+        <x:v>1075.7646</x:v>
       </x:c>
       <x:c r="E36" s="6" t="n">
         <x:v>8598.0878</x:v>
@@ -1243,7 +1243,7 @@
         <x:v>35552.28</x:v>
       </x:c>
       <x:c r="D37" s="6" t="n">
-        <x:v>956.34715</x:v>
+        <x:v>956.34662</x:v>
       </x:c>
       <x:c r="E37" s="6" t="n">
         <x:v>8598.0914</x:v>
@@ -1257,7 +1257,7 @@
         <x:v>70685.67</x:v>
       </x:c>
       <x:c r="D38" s="6" t="n">
-        <x:v>860.81318</x:v>
+        <x:v>860.81279</x:v>
       </x:c>
       <x:c r="E38" s="6" t="n">
         <x:v>8598.0931</x:v>
@@ -1271,7 +1271,7 @@
         <x:v>104756.16</x:v>
       </x:c>
       <x:c r="D39" s="6" t="n">
-        <x:v>782.64901</x:v>
+        <x:v>782.64874</x:v>
       </x:c>
       <x:c r="E39" s="6" t="n">
         <x:v>8598.092</x:v>
@@ -1285,7 +1285,7 @@
         <x:v>55793.8</x:v>
       </x:c>
       <x:c r="D40" s="6" t="n">
-        <x:v>717.51221</x:v>
+        <x:v>717.51203</x:v>
       </x:c>
       <x:c r="E40" s="6" t="n">
         <x:v>8598.1019</x:v>
@@ -1299,7 +1299,7 @@
         <x:v>19962.33</x:v>
       </x:c>
       <x:c r="D41" s="6" t="n">
-        <x:v>662.39645</x:v>
+        <x:v>662.39635</x:v>
       </x:c>
       <x:c r="E41" s="6" t="n">
         <x:v>8598.099</x:v>
@@ -1362,7 +1362,7 @@
         <x:v>14550.98</x:v>
       </x:c>
       <x:c r="D44" s="6" t="n">
-        <x:v>1075.76563</x:v>
+        <x:v>1075.76493</x:v>
       </x:c>
       <x:c r="E44" s="6" t="n">
         <x:v>8598.0878</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>29840.91</x:v>
       </x:c>
       <x:c r="D45" s="6" t="n">
-        <x:v>956.34805</x:v>
+        <x:v>956.34752</x:v>
       </x:c>
       <x:c r="E45" s="6" t="n">
         <x:v>8598.0944</x:v>
@@ -1390,7 +1390,7 @@
         <x:v>64102.97</x:v>
       </x:c>
       <x:c r="D46" s="6" t="n">
-        <x:v>860.81398</x:v>
+        <x:v>860.81359</x:v>
       </x:c>
       <x:c r="E46" s="6" t="n">
         <x:v>8598.09</x:v>
@@ -1404,7 +1404,7 @@
         <x:v>96932.72</x:v>
       </x:c>
       <x:c r="D47" s="6" t="n">
-        <x:v>782.64974</x:v>
+        <x:v>782.64947</x:v>
       </x:c>
       <x:c r="E47" s="6" t="n">
         <x:v>8598.1003</x:v>
@@ -1418,7 +1418,7 @@
         <x:v>78333.78</x:v>
       </x:c>
       <x:c r="D48" s="6" t="n">
-        <x:v>717.51288</x:v>
+        <x:v>717.51271</x:v>
       </x:c>
       <x:c r="E48" s="6" t="n">
         <x:v>8598.1036</x:v>
@@ -1432,7 +1432,7 @@
         <x:v>21568.5</x:v>
       </x:c>
       <x:c r="D49" s="6" t="n">
-        <x:v>662.39707</x:v>
+        <x:v>662.39697</x:v>
       </x:c>
       <x:c r="E49" s="6" t="n">
         <x:v>8598.0973</x:v>
@@ -1495,7 +1495,7 @@
         <x:v>14550.98</x:v>
       </x:c>
       <x:c r="D52" s="6" t="n">
-        <x:v>1075.76563</x:v>
+        <x:v>1075.76493</x:v>
       </x:c>
       <x:c r="E52" s="6" t="n">
         <x:v>8598.0878</x:v>
@@ -1509,7 +1509,7 @@
         <x:v>29840.91</x:v>
       </x:c>
       <x:c r="D53" s="6" t="n">
-        <x:v>956.34805</x:v>
+        <x:v>956.34752</x:v>
       </x:c>
       <x:c r="E53" s="6" t="n">
         <x:v>8598.0944</x:v>
@@ -1523,7 +1523,7 @@
         <x:v>64102.97</x:v>
       </x:c>
       <x:c r="D54" s="6" t="n">
-        <x:v>860.81398</x:v>
+        <x:v>860.81359</x:v>
       </x:c>
       <x:c r="E54" s="6" t="n">
         <x:v>8598.09</x:v>
@@ -1537,7 +1537,7 @@
         <x:v>96932.72</x:v>
       </x:c>
       <x:c r="D55" s="6" t="n">
-        <x:v>782.64974</x:v>
+        <x:v>782.64947</x:v>
       </x:c>
       <x:c r="E55" s="6" t="n">
         <x:v>8598.1003</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>78333.78</x:v>
       </x:c>
       <x:c r="D56" s="6" t="n">
-        <x:v>717.51288</x:v>
+        <x:v>717.51271</x:v>
       </x:c>
       <x:c r="E56" s="6" t="n">
         <x:v>8598.1036</x:v>
@@ -1565,7 +1565,7 @@
         <x:v>21568.5</x:v>
       </x:c>
       <x:c r="D57" s="6" t="n">
-        <x:v>662.39707</x:v>
+        <x:v>662.39697</x:v>
       </x:c>
       <x:c r="E57" s="6" t="n">
         <x:v>8598.0973</x:v>
@@ -1628,7 +1628,7 @@
         <x:v>13623.54</x:v>
       </x:c>
       <x:c r="D60" s="6" t="n">
-        <x:v>1075.76498</x:v>
+        <x:v>1075.76427</x:v>
       </x:c>
       <x:c r="E60" s="6" t="n">
         <x:v>8598.0881</x:v>
@@ -1642,7 +1642,7 @@
         <x:v>30577.04</x:v>
       </x:c>
       <x:c r="D61" s="6" t="n">
-        <x:v>956.34747</x:v>
+        <x:v>956.34694</x:v>
       </x:c>
       <x:c r="E61" s="6" t="n">
         <x:v>8598.0925</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>62116.62</x:v>
       </x:c>
       <x:c r="D62" s="6" t="n">
-        <x:v>860.81346</x:v>
+        <x:v>860.81307</x:v>
       </x:c>
       <x:c r="E62" s="6" t="n">
         <x:v>8598.0914</x:v>
@@ -1670,7 +1670,7 @@
         <x:v>96352.27</x:v>
       </x:c>
       <x:c r="D63" s="6" t="n">
-        <x:v>782.64926</x:v>
+        <x:v>782.64899</x:v>
       </x:c>
       <x:c r="E63" s="6" t="n">
         <x:v>8598.0955</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>64896.63</x:v>
       </x:c>
       <x:c r="D64" s="6" t="n">
-        <x:v>717.51244</x:v>
+        <x:v>717.51226</x:v>
       </x:c>
       <x:c r="E64" s="6" t="n">
         <x:v>8598.103</x:v>
@@ -1698,7 +1698,7 @@
         <x:v>21272.6</x:v>
       </x:c>
       <x:c r="D65" s="6" t="n">
-        <x:v>662.39667</x:v>
+        <x:v>662.39657</x:v>
       </x:c>
       <x:c r="E65" s="6" t="n">
         <x:v>8598.0973</x:v>
@@ -1761,7 +1761,7 @@
         <x:v>24312.71</x:v>
       </x:c>
       <x:c r="D68" s="6" t="n">
-        <x:v>1131.77965</x:v>
+        <x:v>1131.77888</x:v>
       </x:c>
       <x:c r="E68" s="6" t="n">
         <x:v>9046.2156</x:v>
@@ -1775,7 +1775,7 @@
         <x:v>41712.11</x:v>
       </x:c>
       <x:c r="D69" s="6" t="n">
-        <x:v>1006.13828</x:v>
+        <x:v>1006.13769</x:v>
       </x:c>
       <x:c r="E69" s="6" t="n">
         <x:v>9046.2169</x:v>
@@ -1789,7 +1789,7 @@
         <x:v>77829.67</x:v>
       </x:c>
       <x:c r="D70" s="6" t="n">
-        <x:v>905.62519</x:v>
+        <x:v>905.62475</x:v>
       </x:c>
       <x:c r="E70" s="6" t="n">
         <x:v>9046.2198</x:v>
@@ -1803,7 +1803,7 @@
         <x:v>95341.1</x:v>
       </x:c>
       <x:c r="D71" s="6" t="n">
-        <x:v>823.38721</x:v>
+        <x:v>823.38689</x:v>
       </x:c>
       <x:c r="E71" s="6" t="n">
         <x:v>9046.2189</x:v>
@@ -1817,7 +1817,7 @@
         <x:v>28427.54</x:v>
       </x:c>
       <x:c r="D72" s="6" t="n">
-        <x:v>754.85555</x:v>
+        <x:v>754.85533</x:v>
       </x:c>
       <x:c r="E72" s="6" t="n">
         <x:v>9046.2235</x:v>
@@ -1880,7 +1880,7 @@
         <x:v>33584.34</x:v>
       </x:c>
       <x:c r="D75" s="6" t="n">
-        <x:v>1131.77817</x:v>
+        <x:v>1131.7774</x:v>
       </x:c>
       <x:c r="E75" s="6" t="n">
         <x:v>9046.2088</x:v>
@@ -1894,7 +1894,7 @@
         <x:v>37645.83</x:v>
       </x:c>
       <x:c r="D76" s="6" t="n">
-        <x:v>1006.13697</x:v>
+        <x:v>1006.13638</x:v>
       </x:c>
       <x:c r="E76" s="6" t="n">
         <x:v>9046.2074</x:v>
@@ -1908,7 +1908,7 @@
         <x:v>67800.94</x:v>
       </x:c>
       <x:c r="D77" s="6" t="n">
-        <x:v>905.62401</x:v>
+        <x:v>905.62357</x:v>
       </x:c>
       <x:c r="E77" s="6" t="n">
         <x:v>9046.2146</x:v>
@@ -1922,7 +1922,7 @@
         <x:v>94649.92</x:v>
       </x:c>
       <x:c r="D78" s="6" t="n">
-        <x:v>823.38614</x:v>
+        <x:v>823.38582</x:v>
       </x:c>
       <x:c r="E78" s="6" t="n">
         <x:v>9046.2125</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>62448.9</x:v>
       </x:c>
       <x:c r="D81" s="6" t="n">
-        <x:v>860.71243</x:v>
+        <x:v>860.71205</x:v>
       </x:c>
       <x:c r="E81" s="6" t="n">
         <x:v>8597.0662</x:v>
@@ -1999,7 +1999,7 @@
         <x:v>93236.23</x:v>
       </x:c>
       <x:c r="D82" s="6" t="n">
-        <x:v>782.55742</x:v>
+        <x:v>782.55716</x:v>
       </x:c>
       <x:c r="E82" s="6" t="n">
         <x:v>8597.0678</x:v>
@@ -2013,7 +2013,7 @@
         <x:v>54464.05</x:v>
       </x:c>
       <x:c r="D83" s="6" t="n">
-        <x:v>717.42825</x:v>
+        <x:v>717.42809</x:v>
       </x:c>
       <x:c r="E83" s="6" t="n">
         <x:v>8597.0731</x:v>
@@ -2076,7 +2076,7 @@
         <x:v>18620.26</x:v>
       </x:c>
       <x:c r="D86" s="6" t="n">
-        <x:v>956.34684</x:v>
+        <x:v>956.3463</x:v>
       </x:c>
       <x:c r="E86" s="6" t="n">
         <x:v>8598.087</x:v>
@@ -2090,7 +2090,7 @@
         <x:v>43496.82</x:v>
       </x:c>
       <x:c r="D87" s="6" t="n">
-        <x:v>860.81289</x:v>
+        <x:v>860.81249</x:v>
       </x:c>
       <x:c r="E87" s="6" t="n">
         <x:v>8598.0907</x:v>
@@ -2104,7 +2104,7 @@
         <x:v>67196.26</x:v>
       </x:c>
       <x:c r="D88" s="6" t="n">
-        <x:v>782.64875</x:v>
+        <x:v>782.64847</x:v>
       </x:c>
       <x:c r="E88" s="6" t="n">
         <x:v>8598.0935</x:v>
@@ -2118,7 +2118,7 @@
         <x:v>34181.71</x:v>
       </x:c>
       <x:c r="D89" s="6" t="n">
-        <x:v>717.51197</x:v>
+        <x:v>717.51178</x:v>
       </x:c>
       <x:c r="E89" s="6" t="n">
         <x:v>8598.1011</x:v>
@@ -2132,7 +2132,7 @@
         <x:v>10923.56</x:v>
       </x:c>
       <x:c r="D90" s="6" t="n">
-        <x:v>662.39624</x:v>
+        <x:v>662.39613</x:v>
       </x:c>
       <x:c r="E90" s="6" t="n">
         <x:v>8598.0978</x:v>
@@ -2195,7 +2195,7 @@
         <x:v>9795.03</x:v>
       </x:c>
       <x:c r="D93" s="6" t="n">
-        <x:v>1105.40523</x:v>
+        <x:v>1105.40449</x:v>
       </x:c>
       <x:c r="E93" s="6" t="n">
         <x:v>8835.2077</x:v>
@@ -2209,7 +2209,7 @@
         <x:v>25865.88</x:v>
       </x:c>
       <x:c r="D94" s="6" t="n">
-        <x:v>982.69437</x:v>
+        <x:v>982.6938</x:v>
       </x:c>
       <x:c r="E94" s="6" t="n">
         <x:v>8835.2187</x:v>
@@ -2223,7 +2223,7 @@
         <x:v>58904.16</x:v>
       </x:c>
       <x:c r="D95" s="6" t="n">
-        <x:v>884.52567</x:v>
+        <x:v>884.52525</x:v>
       </x:c>
       <x:c r="E95" s="6" t="n">
         <x:v>8835.2153</x:v>
@@ -2237,7 +2237,7 @@
         <x:v>54189.67</x:v>
       </x:c>
       <x:c r="D96" s="6" t="n">
-        <x:v>804.20582</x:v>
+        <x:v>804.20552</x:v>
       </x:c>
       <x:c r="E96" s="6" t="n">
         <x:v>8835.2203</x:v>
@@ -2251,7 +2251,7 @@
         <x:v>14978.57</x:v>
       </x:c>
       <x:c r="D97" s="6" t="n">
-        <x:v>737.27262</x:v>
+        <x:v>737.27241</x:v>
       </x:c>
       <x:c r="E97" s="6" t="n">
         <x:v>8835.2211</x:v>
@@ -2314,7 +2314,7 @@
         <x:v>9795.03</x:v>
       </x:c>
       <x:c r="D100" s="6" t="n">
-        <x:v>1105.40523</x:v>
+        <x:v>1105.40449</x:v>
       </x:c>
       <x:c r="E100" s="6" t="n">
         <x:v>8835.2077</x:v>
@@ -2328,7 +2328,7 @@
         <x:v>25865.88</x:v>
       </x:c>
       <x:c r="D101" s="6" t="n">
-        <x:v>982.69437</x:v>
+        <x:v>982.6938</x:v>
       </x:c>
       <x:c r="E101" s="6" t="n">
         <x:v>8835.2187</x:v>
@@ -2342,7 +2342,7 @@
         <x:v>58904.16</x:v>
       </x:c>
       <x:c r="D102" s="6" t="n">
-        <x:v>884.52567</x:v>
+        <x:v>884.52525</x:v>
       </x:c>
       <x:c r="E102" s="6" t="n">
         <x:v>8835.2153</x:v>
@@ -2356,7 +2356,7 @@
         <x:v>54189.67</x:v>
       </x:c>
       <x:c r="D103" s="6" t="n">
-        <x:v>804.20582</x:v>
+        <x:v>804.20552</x:v>
       </x:c>
       <x:c r="E103" s="6" t="n">
         <x:v>8835.2203</x:v>
@@ -2370,7 +2370,7 @@
         <x:v>14978.57</x:v>
       </x:c>
       <x:c r="D104" s="6" t="n">
-        <x:v>737.27262</x:v>
+        <x:v>737.27241</x:v>
       </x:c>
       <x:c r="E104" s="6" t="n">
         <x:v>8835.2211</x:v>
@@ -2433,7 +2433,7 @@
         <x:v>43462.79</x:v>
       </x:c>
       <x:c r="D107" s="6" t="n">
-        <x:v>860.7125</x:v>
+        <x:v>860.71212</x:v>
       </x:c>
       <x:c r="E107" s="6" t="n">
         <x:v>8597.0736</x:v>
@@ -2447,7 +2447,7 @@
         <x:v>69431.58</x:v>
       </x:c>
       <x:c r="D108" s="6" t="n">
-        <x:v>782.55748</x:v>
+        <x:v>782.55722</x:v>
       </x:c>
       <x:c r="E108" s="6" t="n">
         <x:v>8597.075</x:v>
@@ -2461,7 +2461,7 @@
         <x:v>40904.28</x:v>
       </x:c>
       <x:c r="D109" s="6" t="n">
-        <x:v>717.42831</x:v>
+        <x:v>717.42814</x:v>
       </x:c>
       <x:c r="E109" s="6" t="n">
         <x:v>8597.0781</x:v>
@@ -2524,7 +2524,7 @@
         <x:v>11654.12</x:v>
       </x:c>
       <x:c r="D112" s="6" t="n">
-        <x:v>956.34633</x:v>
+        <x:v>956.34581</x:v>
       </x:c>
       <x:c r="E112" s="6" t="n">
         <x:v>8598.0879</x:v>
@@ -2538,7 +2538,7 @@
         <x:v>33357.08</x:v>
       </x:c>
       <x:c r="D113" s="6" t="n">
-        <x:v>860.81244</x:v>
+        <x:v>860.81206</x:v>
       </x:c>
       <x:c r="E113" s="6" t="n">
         <x:v>8598.0883</x:v>
@@ -2552,7 +2552,7 @@
         <x:v>51995.38</x:v>
       </x:c>
       <x:c r="D114" s="6" t="n">
-        <x:v>782.64834</x:v>
+        <x:v>782.64808</x:v>
       </x:c>
       <x:c r="E114" s="6" t="n">
         <x:v>8598.0966</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>40255.03</x:v>
       </x:c>
       <x:c r="D115" s="6" t="n">
-        <x:v>717.51159</x:v>
+        <x:v>717.51142</x:v>
       </x:c>
       <x:c r="E115" s="6" t="n">
         <x:v>8598.0931</x:v>
@@ -2629,7 +2629,7 @@
         <x:v>11654.12</x:v>
       </x:c>
       <x:c r="D118" s="6" t="n">
-        <x:v>956.34633</x:v>
+        <x:v>956.34581</x:v>
       </x:c>
       <x:c r="E118" s="6" t="n">
         <x:v>8598.0879</x:v>
@@ -2643,7 +2643,7 @@
         <x:v>33357.08</x:v>
       </x:c>
       <x:c r="D119" s="6" t="n">
-        <x:v>860.81244</x:v>
+        <x:v>860.81206</x:v>
       </x:c>
       <x:c r="E119" s="6" t="n">
         <x:v>8598.0883</x:v>
@@ -2657,7 +2657,7 @@
         <x:v>51995.38</x:v>
       </x:c>
       <x:c r="D120" s="6" t="n">
-        <x:v>782.64834</x:v>
+        <x:v>782.64808</x:v>
       </x:c>
       <x:c r="E120" s="6" t="n">
         <x:v>8598.0966</x:v>
@@ -2671,7 +2671,7 @@
         <x:v>40255.03</x:v>
       </x:c>
       <x:c r="D121" s="6" t="n">
-        <x:v>717.51159</x:v>
+        <x:v>717.51142</x:v>
       </x:c>
       <x:c r="E121" s="6" t="n">
         <x:v>8598.0931</x:v>
@@ -2734,7 +2734,7 @@
         <x:v>23617.01</x:v>
       </x:c>
       <x:c r="D124" s="6" t="n">
-        <x:v>1006.13979</x:v>
+        <x:v>1006.13921</x:v>
       </x:c>
       <x:c r="E124" s="6" t="n">
         <x:v>9046.2252</x:v>
@@ -2748,7 +2748,7 @@
         <x:v>35310.81</x:v>
       </x:c>
       <x:c r="D125" s="6" t="n">
-        <x:v>905.62655</x:v>
+        <x:v>905.62611</x:v>
       </x:c>
       <x:c r="E125" s="6" t="n">
         <x:v>9046.2265</x:v>
@@ -2762,7 +2762,7 @@
         <x:v>50991.65</x:v>
       </x:c>
       <x:c r="D126" s="6" t="n">
-        <x:v>823.38844</x:v>
+        <x:v>823.38813</x:v>
       </x:c>
       <x:c r="E126" s="6" t="n">
         <x:v>9046.2294</x:v>
@@ -2825,7 +2825,7 @@
         <x:v>12150.88</x:v>
       </x:c>
       <x:c r="D129" s="6" t="n">
-        <x:v>1131.7785</x:v>
+        <x:v>1131.77772</x:v>
       </x:c>
       <x:c r="E129" s="6" t="n">
         <x:v>9046.2048</x:v>
@@ -2839,7 +2839,7 @@
         <x:v>15754.33</x:v>
       </x:c>
       <x:c r="D130" s="6" t="n">
-        <x:v>1006.13726</x:v>
+        <x:v>1006.13666</x:v>
       </x:c>
       <x:c r="E130" s="6" t="n">
         <x:v>9046.2032</x:v>
@@ -2853,7 +2853,7 @@
         <x:v>29639.72</x:v>
       </x:c>
       <x:c r="D131" s="6" t="n">
-        <x:v>905.62428</x:v>
+        <x:v>905.62383</x:v>
       </x:c>
       <x:c r="E131" s="6" t="n">
         <x:v>9046.2171</x:v>
@@ -2867,7 +2867,7 @@
         <x:v>43018.04</x:v>
       </x:c>
       <x:c r="D132" s="6" t="n">
-        <x:v>823.38637</x:v>
+        <x:v>823.38604</x:v>
       </x:c>
       <x:c r="E132" s="6" t="n">
         <x:v>9046.2125</x:v>
@@ -2930,7 +2930,7 @@
         <x:v>11952.92</x:v>
       </x:c>
       <x:c r="D135" s="6" t="n">
-        <x:v>956.34714</x:v>
+        <x:v>956.34659</x:v>
       </x:c>
       <x:c r="E135" s="6" t="n">
         <x:v>8598.0911</x:v>
@@ -2944,7 +2944,7 @@
         <x:v>31653.49</x:v>
       </x:c>
       <x:c r="D136" s="6" t="n">
-        <x:v>860.81317</x:v>
+        <x:v>860.81276</x:v>
       </x:c>
       <x:c r="E136" s="6" t="n">
         <x:v>8598.0881</x:v>
@@ -2958,7 +2958,7 @@
         <x:v>39734.59</x:v>
       </x:c>
       <x:c r="D137" s="6" t="n">
-        <x:v>782.649</x:v>
+        <x:v>782.64871</x:v>
       </x:c>
       <x:c r="E137" s="6" t="n">
         <x:v>8598.0971</x:v>
@@ -2972,7 +2972,7 @@
         <x:v>14920.14</x:v>
       </x:c>
       <x:c r="D138" s="6" t="n">
-        <x:v>717.5122</x:v>
+        <x:v>717.51201</x:v>
       </x:c>
       <x:c r="E138" s="6" t="n">
         <x:v>8598.1023</x:v>
@@ -3035,7 +3035,7 @@
         <x:v>10039.92</x:v>
       </x:c>
       <x:c r="D141" s="6" t="n">
-        <x:v>956.34633</x:v>
+        <x:v>956.34579</x:v>
       </x:c>
       <x:c r="E141" s="6" t="n">
         <x:v>8598.0877</x:v>
@@ -3049,7 +3049,7 @@
         <x:v>23903.38</x:v>
       </x:c>
       <x:c r="D142" s="6" t="n">
-        <x:v>860.81244</x:v>
+        <x:v>860.81204</x:v>
       </x:c>
       <x:c r="E142" s="6" t="n">
         <x:v>8598.0842</x:v>
@@ -3063,7 +3063,7 @@
         <x:v>30780.5</x:v>
       </x:c>
       <x:c r="D143" s="6" t="n">
-        <x:v>782.64834</x:v>
+        <x:v>782.64806</x:v>
       </x:c>
       <x:c r="E143" s="6" t="n">
         <x:v>8598.0988</x:v>
@@ -3077,7 +3077,7 @@
         <x:v>19065.63</x:v>
       </x:c>
       <x:c r="D144" s="6" t="n">
-        <x:v>717.51159</x:v>
+        <x:v>717.5114</x:v>
       </x:c>
       <x:c r="E144" s="6" t="n">
         <x:v>8598.1021</x:v>
@@ -3140,7 +3140,7 @@
         <x:v>10039.92</x:v>
       </x:c>
       <x:c r="D147" s="6" t="n">
-        <x:v>956.34633</x:v>
+        <x:v>956.34579</x:v>
       </x:c>
       <x:c r="E147" s="6" t="n">
         <x:v>8598.0877</x:v>
@@ -3154,7 +3154,7 @@
         <x:v>23903.38</x:v>
       </x:c>
       <x:c r="D148" s="6" t="n">
-        <x:v>860.81244</x:v>
+        <x:v>860.81204</x:v>
       </x:c>
       <x:c r="E148" s="6" t="n">
         <x:v>8598.0842</x:v>
@@ -3168,7 +3168,7 @@
         <x:v>30780.5</x:v>
       </x:c>
       <x:c r="D149" s="6" t="n">
-        <x:v>782.64834</x:v>
+        <x:v>782.64806</x:v>
       </x:c>
       <x:c r="E149" s="6" t="n">
         <x:v>8598.0988</x:v>
@@ -3182,7 +3182,7 @@
         <x:v>19065.63</x:v>
       </x:c>
       <x:c r="D150" s="6" t="n">
-        <x:v>717.51159</x:v>
+        <x:v>717.5114</x:v>
       </x:c>
       <x:c r="E150" s="6" t="n">
         <x:v>8598.1021</x:v>
@@ -3245,7 +3245,7 @@
         <x:v>14889.04</x:v>
       </x:c>
       <x:c r="D153" s="6" t="n">
-        <x:v>982.69477</x:v>
+        <x:v>982.69419</x:v>
       </x:c>
       <x:c r="E153" s="6" t="n">
         <x:v>8835.2206</x:v>
@@ -3259,7 +3259,7 @@
         <x:v>24041.65</x:v>
       </x:c>
       <x:c r="D154" s="6" t="n">
-        <x:v>884.52603</x:v>
+        <x:v>884.5256</x:v>
       </x:c>
       <x:c r="E154" s="6" t="n">
         <x:v>8835.2168</x:v>
@@ -3273,7 +3273,7 @@
         <x:v>30939.08</x:v>
       </x:c>
       <x:c r="D155" s="6" t="n">
-        <x:v>804.20615</x:v>
+        <x:v>804.20584</x:v>
       </x:c>
       <x:c r="E155" s="6" t="n">
         <x:v>8835.2201</x:v>
@@ -3287,7 +3287,7 @@
         <x:v>8409.43</x:v>
       </x:c>
       <x:c r="D156" s="6" t="n">
-        <x:v>737.27292</x:v>
+        <x:v>737.27271</x:v>
       </x:c>
       <x:c r="E156" s="6" t="n">
         <x:v>8835.2181</x:v>
@@ -3350,7 +3350,7 @@
         <x:v>8694.69</x:v>
       </x:c>
       <x:c r="D159" s="6" t="n">
-        <x:v>956.34691</x:v>
+        <x:v>956.34636</x:v>
       </x:c>
       <x:c r="E159" s="6" t="n">
         <x:v>8598.0921</x:v>
@@ -3364,7 +3364,7 @@
         <x:v>24966.24</x:v>
       </x:c>
       <x:c r="D160" s="6" t="n">
-        <x:v>860.81295</x:v>
+        <x:v>860.81254</x:v>
       </x:c>
       <x:c r="E160" s="6" t="n">
         <x:v>8598.0864</x:v>
@@ -3378,7 +3378,7 @@
         <x:v>26754.71</x:v>
       </x:c>
       <x:c r="D161" s="6" t="n">
-        <x:v>782.64881</x:v>
+        <x:v>782.64852</x:v>
       </x:c>
       <x:c r="E161" s="6" t="n">
         <x:v>8598.1</x:v>
@@ -3392,7 +3392,7 @@
         <x:v>16473.62</x:v>
       </x:c>
       <x:c r="D162" s="6" t="n">
-        <x:v>717.51202</x:v>
+        <x:v>717.51183</x:v>
       </x:c>
       <x:c r="E162" s="6" t="n">
         <x:v>8598.0975</x:v>
@@ -3455,7 +3455,7 @@
         <x:v>6026.06</x:v>
       </x:c>
       <x:c r="D165" s="6" t="n">
-        <x:v>956.34649</x:v>
+        <x:v>956.34594</x:v>
       </x:c>
       <x:c r="E165" s="6" t="n">
         <x:v>8598.0921</x:v>
@@ -3469,7 +3469,7 @@
         <x:v>22850.18</x:v>
       </x:c>
       <x:c r="D166" s="6" t="n">
-        <x:v>860.81258</x:v>
+        <x:v>860.81217</x:v>
       </x:c>
       <x:c r="E166" s="6" t="n">
         <x:v>8598.0883</x:v>
@@ -3483,7 +3483,7 @@
         <x:v>25945.25</x:v>
       </x:c>
       <x:c r="D167" s="6" t="n">
-        <x:v>782.64847</x:v>
+        <x:v>782.64818</x:v>
       </x:c>
       <x:c r="E167" s="6" t="n">
         <x:v>8598.0954</x:v>
@@ -3497,7 +3497,7 @@
         <x:v>13083.94</x:v>
       </x:c>
       <x:c r="D168" s="6" t="n">
-        <x:v>717.51171</x:v>
+        <x:v>717.51151</x:v>
       </x:c>
       <x:c r="E168" s="6" t="n">
         <x:v>8598.0982</x:v>
@@ -3560,7 +3560,7 @@
         <x:v>17714.37</x:v>
       </x:c>
       <x:c r="D171" s="6" t="n">
-        <x:v>860.81194</x:v>
+        <x:v>860.81153</x:v>
       </x:c>
       <x:c r="E171" s="6" t="n">
         <x:v>8598.0911</x:v>
@@ -3574,7 +3574,7 @@
         <x:v>18300.09</x:v>
       </x:c>
       <x:c r="D172" s="6" t="n">
-        <x:v>782.64788</x:v>
+        <x:v>782.64759</x:v>
       </x:c>
       <x:c r="E172" s="6" t="n">
         <x:v>8598.0957</x:v>
@@ -3588,7 +3588,7 @@
         <x:v>10396.36</x:v>
       </x:c>
       <x:c r="D173" s="6" t="n">
-        <x:v>717.51118</x:v>
+        <x:v>717.51098</x:v>
       </x:c>
       <x:c r="E173" s="6" t="n">
         <x:v>8598.0962</x:v>
@@ -3651,7 +3651,7 @@
         <x:v>6023.01</x:v>
       </x:c>
       <x:c r="D176" s="6" t="n">
-        <x:v>860.81381</x:v>
+        <x:v>860.81339</x:v>
       </x:c>
       <x:c r="E176" s="6" t="n">
         <x:v>8598.0955</x:v>
@@ -3665,7 +3665,7 @@
         <x:v>14204.68</x:v>
       </x:c>
       <x:c r="D177" s="6" t="n">
-        <x:v>782.64959</x:v>
+        <x:v>782.64929</x:v>
       </x:c>
       <x:c r="E177" s="6" t="n">
         <x:v>8598.0944</x:v>
@@ -3679,7 +3679,7 @@
         <x:v>5762.85</x:v>
       </x:c>
       <x:c r="D178" s="6" t="n">
-        <x:v>717.51274</x:v>
+        <x:v>717.51253</x:v>
       </x:c>
       <x:c r="E178" s="6" t="n">
         <x:v>8598.1007</x:v>
@@ -3742,7 +3742,7 @@
         <x:v>4567.75</x:v>
       </x:c>
       <x:c r="D181" s="6" t="n">
-        <x:v>860.81374</x:v>
+        <x:v>860.81331</x:v>
       </x:c>
       <x:c r="E181" s="6" t="n">
         <x:v>8598.0952</x:v>
@@ -3756,7 +3756,7 @@
         <x:v>11594.62</x:v>
       </x:c>
       <x:c r="D182" s="6" t="n">
-        <x:v>782.64952</x:v>
+        <x:v>782.64921</x:v>
       </x:c>
       <x:c r="E182" s="6" t="n">
         <x:v>8598.0949</x:v>
@@ -3770,7 +3770,7 @@
         <x:v>5207.32</x:v>
       </x:c>
       <x:c r="D183" s="6" t="n">
-        <x:v>717.51268</x:v>
+        <x:v>717.51247</x:v>
       </x:c>
       <x:c r="E183" s="6" t="n">
         <x:v>8598.1017</x:v>
